--- a/data/trans_bre/P19-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.001579324439916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.489631040908712</v>
+        <v>7.489631040908707</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2736828508709454</v>
@@ -649,7 +649,7 @@
         <v>0.2005278818514959</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.199755188586461</v>
+        <v>0.1997551885864609</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.734986032875416</v>
+        <v>2.346767914503972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.198089384179022</v>
+        <v>-5.077122109840878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6818598168276487</v>
+        <v>0.3513391814388584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.712236541203957</v>
+        <v>1.790732929445847</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04845120535520116</v>
+        <v>0.06548227500607968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1345618352142854</v>
+        <v>-0.1312009338582628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01673814964932932</v>
+        <v>0.008286496507763579</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04382412340661929</v>
+        <v>0.04386808965799591</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.6498670646425</v>
+        <v>15.63389842959524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.33831316886323</v>
+        <v>10.24438769961391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.78506071165073</v>
+        <v>14.14445426378906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.37476898980533</v>
+        <v>13.34419948228351</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5347890141173312</v>
+        <v>0.5365247578906656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3266712372380906</v>
+        <v>0.3242396286732599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4406595656660223</v>
+        <v>0.4400239822474889</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3904133055305593</v>
+        <v>0.3889596678928853</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>10.09386841501354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12.49690337342759</v>
+        <v>12.4969033734276</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2868172933486937</v>
@@ -749,7 +749,7 @@
         <v>0.3150526560442584</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4203899834902649</v>
+        <v>0.4203899834902653</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.894449083943715</v>
+        <v>1.812249056026787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9039774949935624</v>
+        <v>-0.125958036049387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.887417209559268</v>
+        <v>2.224459264510966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.507907548939892</v>
+        <v>6.407570833426453</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0561116420941812</v>
+        <v>0.05101827599184586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0147732435658505</v>
+        <v>-0.0005124131513113079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07914645830331798</v>
+        <v>0.06485917751764256</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.191821487811567</v>
+        <v>0.2035858278928979</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.82039810897394</v>
+        <v>15.89461512290423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.53700647468092</v>
+        <v>15.14727352348744</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.32741737306291</v>
+        <v>17.50404405258849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.96055719744581</v>
+        <v>18.52949220692054</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.582803964713146</v>
+        <v>0.5703726773036041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5207902221124127</v>
+        <v>0.5197874367668842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6041606185244706</v>
+        <v>0.613836535791996</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7326675610847216</v>
+        <v>0.7080860423874252</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.385745532638154</v>
+        <v>-2.675674515122646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.262813171432967</v>
+        <v>8.318200004822012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.841509583628938</v>
+        <v>-0.2708006574302581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.594060385574924</v>
+        <v>-5.386886280232217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.0865094601876801</v>
+        <v>-0.1021730359819277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3648955803736981</v>
+        <v>0.3537915461777152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03696991639060541</v>
+        <v>-0.006941871806059025</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1961442873244865</v>
+        <v>-0.1678856037936517</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.24115818857478</v>
+        <v>14.11964808274853</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.41665434104934</v>
+        <v>21.94173916371061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.104646689187</v>
+        <v>16.62795392883621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.573376555597966</v>
+        <v>8.609447519616246</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6360224953288778</v>
+        <v>0.604435494445995</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.141675548262576</v>
+        <v>1.098509555369637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6830001341025184</v>
+        <v>0.67383138643976</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3067170176100069</v>
+        <v>0.3008684246003852</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.3491256044935088</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5724801762006871</v>
+        <v>0.572480176200687</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.446585982684056</v>
+        <v>5.538553640590472</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.918273025038481</v>
+        <v>4.938693663304184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.138156253425561</v>
+        <v>5.508624417345163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.879587414903341</v>
+        <v>8.86207920601287</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2249700637795588</v>
+        <v>0.2384206672763299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2363538638164614</v>
+        <v>0.2482530173483072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1781475459752478</v>
+        <v>0.1963568209357831</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3637430109245526</v>
+        <v>0.36192831142885</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.97579841091959</v>
+        <v>14.14195563736433</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.20198887599796</v>
+        <v>12.95413686434005</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.36929166064991</v>
+        <v>13.87912058547102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.57744501034837</v>
+        <v>16.51752967396137</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6713233738512459</v>
+        <v>0.6842128603465415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7613958301289223</v>
+        <v>0.7403386130535418</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5468026449167793</v>
+        <v>0.5773532428354351</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.842659674084729</v>
+        <v>0.8251284775818927</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.312090092836351</v>
+        <v>6.250850723191721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.258203419754965</v>
+        <v>3.411353092598615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.584099286291867</v>
+        <v>1.641179553358965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.437984461663739</v>
+        <v>2.061836375909578</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.277581679352197</v>
+        <v>0.2865085474222971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.135927642866635</v>
+        <v>0.1462871419221662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0574820705798344</v>
+        <v>0.06046317414524512</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06448811149368461</v>
+        <v>0.1107653017258946</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.50512106531389</v>
+        <v>17.75541997602335</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.92678440338196</v>
+        <v>12.6951141044384</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.4628985415336</v>
+        <v>11.44445039243924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.57098006085646</v>
+        <v>10.59054749836295</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.154069535559526</v>
+        <v>1.173752522909595</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7245344587097468</v>
+        <v>0.712742931157367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5270019852576745</v>
+        <v>0.5176001249201375</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7713776548327397</v>
+        <v>0.7931025046967055</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-10.11180374498901</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-8.059969284190343</v>
+        <v>-8.059969284190355</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1130277765039625</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2427154963845262</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2628231662203048</v>
+        <v>-0.262823166220305</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.124317492041413</v>
+        <v>-2.351248070932225</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.347158187054</v>
+        <v>-13.43952805426523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-16.65051089807057</v>
+        <v>-16.24235842594868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-18.05605507845045</v>
+        <v>-18.11912472267957</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1086347111528353</v>
+        <v>-0.08267663873056415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3418110420214659</v>
+        <v>-0.3393552685475331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3500188894770765</v>
+        <v>-0.3493709450095537</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.459110985482482</v>
+        <v>-0.4557529567404255</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.218182117902535</v>
+        <v>8.098344810295407</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.7912755090283958</v>
+        <v>-1.277703245776673</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3.285571936436204</v>
+        <v>-3.461301226583238</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.562151645220579</v>
+        <v>1.118953509045023</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4317541259173162</v>
+        <v>0.4286125344516654</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.02447007493061227</v>
+        <v>-0.04161532266854188</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.09004458744133444</v>
+        <v>-0.09439641801164858</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.070792165808182</v>
+        <v>0.04816071867243065</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.1920645121237343</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1850430420744933</v>
+        <v>0.1850430420744932</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.236571862405298</v>
+        <v>4.357162843817126</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.609211536761006</v>
+        <v>3.416042550248976</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.333596032496573</v>
+        <v>3.202483663986207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.609781985581936</v>
+        <v>2.791099761738347</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1661164975103005</v>
+        <v>0.171734732803889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.138975011249063</v>
+        <v>0.1320895734657165</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1111412784643661</v>
+        <v>0.1068555899132733</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0911607745189133</v>
+        <v>0.1029772309909398</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.603505336212946</v>
+        <v>8.636846864283793</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.923901124079713</v>
+        <v>8.02932807009482</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.031451219591366</v>
+        <v>7.600040390519612</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.201393739345583</v>
+        <v>6.994863769188949</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3682369893331062</v>
+        <v>0.3634455169549111</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3400949922878371</v>
+        <v>0.3411851615039896</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2879057449705173</v>
+        <v>0.277435595796803</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2850165700900441</v>
+        <v>0.2831316998285202</v>
       </c>
     </row>
     <row r="25">
